--- a/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_marque_modele_voiture/Marque Modele.xlsx
+++ b/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_marque_modele_voiture/Marque Modele.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>libelle</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>numMarque</t>
+  </si>
+  <si>
+    <t>dateCommande</t>
+  </si>
+  <si>
+    <t>dateArrivee</t>
   </si>
   <si>
     <t xml:space="preserve">ALFA ROMEO</t>
@@ -1861,7 +1867,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
       <selection activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1873,6 +1879,7 @@
     <col bestFit="1" min="9" max="9" width="74.00390625"/>
     <col bestFit="1" min="10" max="10" width="13.28125"/>
     <col bestFit="1" min="12" max="12" width="67.140625"/>
+    <col bestFit="1" min="15" max="15" width="14.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1898,8 +1905,14 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1927,20 +1940,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K2&amp;","""&amp;J2&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (1,"ALFA ROMEO");</v>
       </c>
+      <c r="O2" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-06-jj</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="str">
         <f>TRIM(B3)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="str">
         <f>TRIM(A4)</f>
@@ -1965,20 +1982,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K3&amp;","""&amp;J3&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (2,"AUDI");</v>
       </c>
+      <c r="O3" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-11-jj</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f>TRIM(B4)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="str">
         <f>TRIM(A5)</f>
@@ -2003,20 +2024,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K4&amp;","""&amp;J4&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (3,"BENTLEY");</v>
       </c>
+      <c r="O4" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
       <c r="C5" t="str">
         <f>TRIM(B5)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="str">
         <f>TRIM(A6)</f>
@@ -2041,20 +2066,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K5&amp;","""&amp;J5&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (4,"BMW");</v>
       </c>
+      <c r="O5" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-07-jj</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="str">
         <f>TRIM(B6)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="str">
         <f>TRIM(A7)</f>
@@ -2079,20 +2108,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K6&amp;","""&amp;J6&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (5,"CADILLAC");</v>
       </c>
+      <c r="O6" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-06-jj</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
         <f>TRIM(B7)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="str">
         <f>TRIM(A8)</f>
@@ -2117,20 +2150,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K7&amp;","""&amp;J7&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (6,"CHEVROLET");</v>
       </c>
+      <c r="O7" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="str">
         <f>TRIM(B8)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="str">
         <f>TRIM(A9)</f>
@@ -2155,20 +2192,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K8&amp;","""&amp;J8&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (7,"CITROEN");</v>
       </c>
+      <c r="O8" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9" t="str">
         <f>TRIM(B9)</f>
         <v xml:space="preserve">ALFA ROMEO</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="str">
         <f>TRIM(A10)</f>
@@ -2193,20 +2234,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K9&amp;","""&amp;J9&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (8,"DACIA");</v>
       </c>
+      <c r="O9" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-07-jj</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="str">
         <f>TRIM(B10)</f>
         <v>AUDI</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="str">
         <f>TRIM(A11)</f>
@@ -2231,20 +2276,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K10&amp;","""&amp;J10&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (9,"FERRARI");</v>
       </c>
+      <c r="O10" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
       <c r="C11" t="str">
         <f>TRIM(B11)</f>
         <v>AUDI</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" t="str">
         <f>TRIM(A12)</f>
@@ -2269,20 +2318,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K11&amp;","""&amp;J11&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (10,"FIAT");</v>
       </c>
+      <c r="O11" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="str">
         <f>TRIM(B12)</f>
         <v>AUDI</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" t="str">
         <f>TRIM(A13)</f>
@@ -2307,20 +2360,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K12&amp;","""&amp;J12&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (11,"FORD");</v>
       </c>
+      <c r="O12" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-08-jj</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="str">
         <f>TRIM(B13)</f>
         <v>AUDI</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" t="str">
         <f>TRIM(A14)</f>
@@ -2345,20 +2402,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K13&amp;","""&amp;J13&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (12,"HONDA");</v>
       </c>
+      <c r="O13" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-08-jj</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="str">
         <f>TRIM(B14)</f>
         <v>AUDI</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" t="str">
         <f>TRIM(A15)</f>
@@ -2383,20 +2444,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K14&amp;","""&amp;J14&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (13,"HYUNDAI");</v>
       </c>
+      <c r="O14" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-08-jj</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="str">
         <f>TRIM(B15)</f>
         <v>AUDI</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" t="str">
         <f>TRIM(A16)</f>
@@ -2421,20 +2486,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K15&amp;","""&amp;J15&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (14,"INFINITI");</v>
       </c>
+      <c r="O15" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-02-jj</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="str">
         <f>TRIM(B16)</f>
         <v>AUDI</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="str">
         <f>TRIM(A17)</f>
@@ -2459,20 +2528,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K16&amp;","""&amp;J16&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (15,"JAGUAR");</v>
       </c>
+      <c r="O16" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-05-jj</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="str">
         <f>TRIM(B17)</f>
         <v>AUDI</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" t="str">
         <f>TRIM(A18)</f>
@@ -2497,20 +2570,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K17&amp;","""&amp;J17&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (16,"JEEP");</v>
       </c>
+      <c r="O17" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="str">
         <f>TRIM(B18)</f>
         <v>AUDI</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="str">
         <f>TRIM(A19)</f>
@@ -2535,20 +2612,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K18&amp;","""&amp;J18&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (17,"KIA");</v>
       </c>
+      <c r="O18" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-07-jj</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="str">
         <f>TRIM(B19)</f>
         <v>AUDI</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" t="str">
         <f>TRIM(A20)</f>
@@ -2573,20 +2654,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K19&amp;","""&amp;J19&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (18,"LADA");</v>
       </c>
+      <c r="O19" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-07-jj</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="str">
         <f>TRIM(B20)</f>
         <v>AUDI</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" t="str">
         <f>TRIM(A21)</f>
@@ -2611,20 +2696,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K20&amp;","""&amp;J20&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (19,"LAMBORGHINI");</v>
       </c>
+      <c r="O20" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="str">
         <f>TRIM(B21)</f>
         <v>AUDI</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" t="str">
         <f>TRIM(A22)</f>
@@ -2649,20 +2738,24 @@
         <f>"INSERT INTO Marques(numMarque, nomMarque) VALUES ("&amp;K21&amp;","""&amp;J21&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Marques(numMarque, nomMarque) VALUES (20,"LANCIA");</v>
       </c>
+      <c r="O21" t="str">
+        <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
+        <v>-02-jj</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="str">
         <f>TRIM(B22)</f>
         <v>BENTLEY</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" t="str">
         <f>TRIM(A23)</f>
@@ -2690,17 +2783,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
       <c r="C23" t="str">
         <f>TRIM(B23)</f>
         <v>BENTLEY</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" t="str">
         <f>TRIM(A24)</f>
@@ -2728,17 +2821,17 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="str">
         <f>TRIM(B24)</f>
         <v>BENTLEY</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G24" t="str">
         <f>TRIM(A25)</f>
@@ -2769,14 +2862,14 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" t="str">
         <f>TRIM(B25)</f>
         <v>BMW</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G25" t="str">
         <f>TRIM(A26)</f>
@@ -2807,14 +2900,14 @@
         <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" t="str">
         <f>TRIM(B26)</f>
         <v>BMW</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" t="str">
         <f>TRIM(A27)</f>
@@ -2845,14 +2938,14 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" t="str">
         <f>TRIM(B27)</f>
         <v>BMW</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G27" t="str">
         <f>TRIM(A28)</f>
@@ -2883,14 +2976,14 @@
         <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="str">
         <f>TRIM(B28)</f>
         <v>BMW</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G28" t="str">
         <f>TRIM(A29)</f>
@@ -2921,14 +3014,14 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="str">
         <f>TRIM(B29)</f>
         <v>BMW</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G29" t="str">
         <f>TRIM(A30)</f>
@@ -2959,14 +3052,14 @@
         <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" t="str">
         <f>TRIM(B30)</f>
         <v>BMW</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G30" t="str">
         <f>TRIM(A31)</f>
@@ -2997,14 +3090,14 @@
         <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="str">
         <f>TRIM(B31)</f>
         <v>BMW</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G31" t="str">
         <f>TRIM(A32)</f>
@@ -3035,14 +3128,14 @@
         <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" t="str">
         <f>TRIM(B32)</f>
         <v>BMW</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G32" t="str">
         <f>TRIM(A33)</f>
@@ -3073,14 +3166,14 @@
         <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="str">
         <f>TRIM(B33)</f>
         <v>BMW</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" t="str">
         <f>TRIM(A34)</f>
@@ -3111,14 +3204,14 @@
         <v>225</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="str">
         <f>TRIM(B34)</f>
         <v>BMW</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G34" t="str">
         <f>TRIM(A35)</f>
@@ -3149,14 +3242,14 @@
         <v>228</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35" t="str">
         <f>TRIM(B35)</f>
         <v>BMW</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G35" t="str">
         <f>TRIM(A36)</f>
@@ -3187,14 +3280,14 @@
         <v>235</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" t="str">
         <f>TRIM(B36)</f>
         <v>BMW</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G36" t="str">
         <f>TRIM(A37)</f>
@@ -3225,14 +3318,14 @@
         <v>316</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="str">
         <f>TRIM(B37)</f>
         <v>BMW</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G37" t="str">
         <f>TRIM(A38)</f>
@@ -3263,14 +3356,14 @@
         <v>318</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="str">
         <f>TRIM(B38)</f>
         <v>BMW</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G38" t="str">
         <f>TRIM(A39)</f>
@@ -3301,14 +3394,14 @@
         <v>320</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" t="str">
         <f>TRIM(B39)</f>
         <v>BMW</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G39" t="str">
         <f>TRIM(A40)</f>
@@ -3339,14 +3432,14 @@
         <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="str">
         <f>TRIM(B40)</f>
         <v>BMW</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G40" t="str">
         <f>TRIM(A41)</f>
@@ -3377,14 +3470,14 @@
         <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="str">
         <f>TRIM(B41)</f>
         <v>BMW</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G41" t="str">
         <f>TRIM(A42)</f>
@@ -3415,14 +3508,14 @@
         <v>330</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" t="str">
         <f>TRIM(B42)</f>
         <v>BMW</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G42" t="str">
         <f>TRIM(A43)</f>
@@ -3453,14 +3546,14 @@
         <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="str">
         <f>TRIM(B43)</f>
         <v>BMW</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G43" t="str">
         <f>TRIM(A44)</f>
@@ -3491,14 +3584,14 @@
         <v>418</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" t="str">
         <f>TRIM(B44)</f>
         <v>BMW</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G44" t="str">
         <f>TRIM(A45)</f>
@@ -3529,14 +3622,14 @@
         <v>420</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="str">
         <f>TRIM(B45)</f>
         <v>BMW</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G45" t="str">
         <f>TRIM(A46)</f>
@@ -3560,7 +3653,7 @@
         <v>425</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" t="str">
         <f>TRIM(B46)</f>
@@ -3588,7 +3681,7 @@
         <v>428</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="str">
         <f>TRIM(B47)</f>
@@ -3616,7 +3709,7 @@
         <v>430</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" t="str">
         <f>TRIM(B48)</f>
@@ -3644,7 +3737,7 @@
         <v>435</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" t="str">
         <f>TRIM(B49)</f>
@@ -3672,7 +3765,7 @@
         <v>518</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" t="str">
         <f>TRIM(B50)</f>
@@ -3700,7 +3793,7 @@
         <v>520</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" t="str">
         <f>TRIM(B51)</f>
@@ -3728,7 +3821,7 @@
         <v>525</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" t="str">
         <f>TRIM(B52)</f>
@@ -3756,7 +3849,7 @@
         <v>528</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="str">
         <f>TRIM(B53)</f>
@@ -3784,7 +3877,7 @@
         <v>530</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" t="str">
         <f>TRIM(B54)</f>
@@ -3812,7 +3905,7 @@
         <v>535</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" t="str">
         <f>TRIM(B55)</f>
@@ -3840,7 +3933,7 @@
         <v>550</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C56" t="str">
         <f>TRIM(B56)</f>
@@ -3868,7 +3961,7 @@
         <v>640</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C57" t="str">
         <f>TRIM(B57)</f>
@@ -3896,7 +3989,7 @@
         <v>650</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C58" t="str">
         <f>TRIM(B58)</f>
@@ -3924,7 +4017,7 @@
         <v>730</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" t="str">
         <f>TRIM(B59)</f>
@@ -3952,7 +4045,7 @@
         <v>740</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" t="str">
         <f>TRIM(B60)</f>
@@ -3980,7 +4073,7 @@
         <v>750</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="str">
         <f>TRIM(B61)</f>
@@ -4008,7 +4101,7 @@
         <v>760</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C62" t="str">
         <f>TRIM(B62)</f>
@@ -4033,10 +4126,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C63" t="str">
         <f>TRIM(B63)</f>
@@ -4061,10 +4154,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C64" t="str">
         <f>TRIM(B64)</f>
@@ -4089,10 +4182,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C65" t="str">
         <f>TRIM(B65)</f>
@@ -4117,10 +4210,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C66" t="str">
         <f>TRIM(B66)</f>
@@ -4145,10 +4238,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C67" t="str">
         <f>TRIM(B67)</f>
@@ -4173,10 +4266,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C68" t="str">
         <f>TRIM(B68)</f>
@@ -4201,10 +4294,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C69" t="str">
         <f>TRIM(B69)</f>
@@ -4229,10 +4322,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C70" t="str">
         <f>TRIM(B70)</f>
@@ -4257,10 +4350,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" t="str">
         <f>TRIM(B71)</f>
@@ -4285,10 +4378,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C72" t="str">
         <f>TRIM(B72)</f>
@@ -4313,10 +4406,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C73" t="str">
         <f>TRIM(B73)</f>
@@ -4341,10 +4434,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C74" t="str">
         <f>TRIM(B74)</f>
@@ -4369,10 +4462,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C75" t="str">
         <f>TRIM(B75)</f>
@@ -4397,10 +4490,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C76" t="str">
         <f>TRIM(B76)</f>
@@ -4425,10 +4518,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C77" t="str">
         <f>TRIM(B77)</f>
@@ -4453,10 +4546,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C78" t="str">
         <f>TRIM(B78)</f>
@@ -4481,10 +4574,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
         <v>88</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
       </c>
       <c r="C79" t="str">
         <f>TRIM(B79)</f>
@@ -4509,10 +4602,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C80" t="str">
         <f>TRIM(B80)</f>
@@ -4537,10 +4630,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C81" t="str">
         <f>TRIM(B81)</f>
@@ -4565,10 +4658,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C82" t="str">
         <f>TRIM(B82)</f>
@@ -4593,10 +4686,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C83" t="str">
         <f>TRIM(B83)</f>
@@ -4621,10 +4714,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C84" t="str">
         <f>TRIM(B84)</f>
@@ -4649,10 +4742,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
         <v>96</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
       </c>
       <c r="C85" t="str">
         <f>TRIM(B85)</f>
@@ -4677,10 +4770,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C86" t="str">
         <f>TRIM(B86)</f>
@@ -4705,10 +4798,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C87" t="str">
         <f>TRIM(B87)</f>
@@ -4733,10 +4826,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C88" t="str">
         <f>TRIM(B88)</f>
@@ -4761,10 +4854,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C89" t="str">
         <f>TRIM(B89)</f>
@@ -4789,10 +4882,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" t="str">
         <f>TRIM(B90)</f>
@@ -4817,10 +4910,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91" t="str">
         <f>TRIM(B91)</f>
@@ -4845,10 +4938,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92" t="str">
         <f>TRIM(B92)</f>
@@ -4873,10 +4966,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C93" t="str">
         <f>TRIM(B93)</f>
@@ -4901,10 +4994,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" t="str">
         <f>TRIM(B94)</f>
@@ -4929,10 +5022,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C95" t="str">
         <f>TRIM(B95)</f>
@@ -4957,10 +5050,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C96" t="str">
         <f>TRIM(B96)</f>
@@ -4985,10 +5078,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" t="str">
         <f>TRIM(B97)</f>
@@ -5013,10 +5106,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C98" t="str">
         <f>TRIM(B98)</f>
@@ -5041,10 +5134,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C99" t="str">
         <f>TRIM(B99)</f>
@@ -5069,10 +5162,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C100" t="str">
         <f>TRIM(B100)</f>
@@ -5097,10 +5190,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C101" t="str">
         <f>TRIM(B101)</f>
@@ -5125,10 +5218,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" t="s">
         <v>114</v>
-      </c>
-      <c r="B102" t="s">
-        <v>112</v>
       </c>
       <c r="C102" t="str">
         <f>TRIM(B102)</f>
@@ -5153,10 +5246,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C103" t="str">
         <f>TRIM(B103)</f>
@@ -5181,10 +5274,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C104" t="str">
         <f>TRIM(B104)</f>
@@ -5212,7 +5305,7 @@
         <v>458</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C105" t="str">
         <f>TRIM(B105)</f>
@@ -5237,10 +5330,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C106" t="str">
         <f>TRIM(B106)</f>
@@ -5265,10 +5358,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
         <v>119</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
       </c>
       <c r="C107" t="str">
         <f>TRIM(B107)</f>
@@ -5293,10 +5386,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C108" t="str">
         <f>TRIM(B108)</f>
@@ -5321,10 +5414,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" t="str">
         <f>TRIM(B109)</f>
@@ -5352,7 +5445,7 @@
         <v>500</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C110" t="str">
         <f>TRIM(B110)</f>
@@ -5377,10 +5470,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" t="str">
         <f>TRIM(B111)</f>
@@ -5405,10 +5498,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" t="s">
         <v>124</v>
-      </c>
-      <c r="B112" t="s">
-        <v>122</v>
       </c>
       <c r="C112" t="str">
         <f>TRIM(B112)</f>
@@ -5433,10 +5526,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" t="str">
         <f>TRIM(B113)</f>
@@ -5461,10 +5554,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C114" t="str">
         <f>TRIM(B114)</f>
@@ -5489,10 +5582,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C115" t="str">
         <f>TRIM(B115)</f>
@@ -5517,10 +5610,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C116" t="str">
         <f>TRIM(B116)</f>
@@ -5545,10 +5638,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" t="str">
         <f>TRIM(B117)</f>
@@ -5573,10 +5666,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C118" t="str">
         <f>TRIM(B118)</f>
@@ -5601,10 +5694,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C119" t="str">
         <f>TRIM(B119)</f>
@@ -5629,10 +5722,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C120" t="str">
         <f>TRIM(B120)</f>
@@ -5657,10 +5750,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C121" t="str">
         <f>TRIM(B121)</f>
@@ -5685,10 +5778,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C122" t="str">
         <f>TRIM(B122)</f>
@@ -5713,10 +5806,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
         <v>136</v>
-      </c>
-      <c r="B123" t="s">
-        <v>134</v>
       </c>
       <c r="C123" t="str">
         <f>TRIM(B123)</f>
@@ -5741,10 +5834,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C124" t="str">
         <f>TRIM(B124)</f>
@@ -5769,10 +5862,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C125" t="str">
         <f>TRIM(B125)</f>
@@ -5797,10 +5890,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C126" t="str">
         <f>TRIM(B126)</f>
@@ -5825,10 +5918,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C127" t="str">
         <f>TRIM(B127)</f>
@@ -5853,10 +5946,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C128" t="str">
         <f>TRIM(B128)</f>
@@ -5881,10 +5974,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C129" t="str">
         <f>TRIM(B129)</f>
@@ -5909,10 +6002,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C130" t="str">
         <f>TRIM(B130)</f>
@@ -5937,10 +6030,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C131" t="str">
         <f>TRIM(B131)</f>
@@ -5965,10 +6058,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C132" t="str">
         <f>TRIM(B132)</f>
@@ -5993,10 +6086,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C133" t="str">
         <f>TRIM(B133)</f>
@@ -6021,10 +6114,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C134" t="str">
         <f>TRIM(B134)</f>
@@ -6049,10 +6142,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C135" t="str">
         <f>TRIM(B135)</f>
@@ -6077,10 +6170,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C136" t="str">
         <f>TRIM(B136)</f>
@@ -6105,10 +6198,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
         <v>151</v>
-      </c>
-      <c r="B137" t="s">
-        <v>149</v>
       </c>
       <c r="C137" t="str">
         <f>TRIM(B137)</f>
@@ -6133,10 +6226,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C138" t="str">
         <f>TRIM(B138)</f>
@@ -6161,10 +6254,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C139" t="str">
         <f>TRIM(B139)</f>
@@ -6189,10 +6282,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C140" t="str">
         <f>TRIM(B140)</f>
@@ -6217,10 +6310,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C141" t="str">
         <f>TRIM(B141)</f>
@@ -6245,10 +6338,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C142" t="str">
         <f>TRIM(B142)</f>
@@ -6273,10 +6366,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" t="s">
         <v>158</v>
-      </c>
-      <c r="B143" t="s">
-        <v>156</v>
       </c>
       <c r="C143" t="str">
         <f>TRIM(B143)</f>
@@ -6301,10 +6394,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C144" t="str">
         <f>TRIM(B144)</f>
@@ -6329,10 +6422,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C145" t="str">
         <f>TRIM(B145)</f>
@@ -6357,10 +6450,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C146" t="str">
         <f>TRIM(B146)</f>
@@ -6385,10 +6478,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C147" t="str">
         <f>TRIM(B147)</f>
@@ -6413,10 +6506,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C148" t="str">
         <f>TRIM(B148)</f>
@@ -6441,10 +6534,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C149" t="str">
         <f>TRIM(B149)</f>
@@ -6469,10 +6562,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C150" t="str">
         <f>TRIM(B150)</f>
@@ -6497,10 +6590,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C151" t="str">
         <f>TRIM(B151)</f>
@@ -6525,10 +6618,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" t="s">
         <v>168</v>
-      </c>
-      <c r="B152" t="s">
-        <v>166</v>
       </c>
       <c r="C152" t="str">
         <f>TRIM(B152)</f>
@@ -6553,10 +6646,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C153" t="str">
         <f>TRIM(B153)</f>
@@ -6581,10 +6674,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C154" t="str">
         <f>TRIM(B154)</f>
@@ -6609,10 +6702,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C155" t="str">
         <f>TRIM(B155)</f>
@@ -6637,10 +6730,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C156" t="str">
         <f>TRIM(B156)</f>
@@ -6665,10 +6758,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" t="s">
         <v>174</v>
-      </c>
-      <c r="B157" t="s">
-        <v>172</v>
       </c>
       <c r="C157" t="str">
         <f>TRIM(B157)</f>
@@ -6693,10 +6786,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C158" t="str">
         <f>TRIM(B158)</f>
@@ -6721,10 +6814,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C159" t="str">
         <f>TRIM(B159)</f>
@@ -6749,10 +6842,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" t="s">
         <v>178</v>
-      </c>
-      <c r="B160" t="s">
-        <v>176</v>
       </c>
       <c r="C160" t="str">
         <f>TRIM(B160)</f>
@@ -6777,10 +6870,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C161" t="str">
         <f>TRIM(B161)</f>
@@ -6805,10 +6898,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C162" t="str">
         <f>TRIM(B162)</f>
@@ -6833,10 +6926,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C163" t="str">
         <f>TRIM(B163)</f>
@@ -6861,10 +6954,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C164" t="str">
         <f>TRIM(B164)</f>
@@ -6889,10 +6982,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C165" t="str">
         <f>TRIM(B165)</f>
@@ -6917,10 +7010,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C166" t="str">
         <f>TRIM(B166)</f>
@@ -6945,10 +7038,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C167" t="str">
         <f>TRIM(B167)</f>
@@ -6973,10 +7066,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C168" t="str">
         <f>TRIM(B168)</f>
@@ -7001,10 +7094,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C169" t="str">
         <f>TRIM(B169)</f>
@@ -7029,10 +7122,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C170" t="str">
         <f>TRIM(B170)</f>
@@ -7057,10 +7150,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C171" t="str">
         <f>TRIM(B171)</f>
@@ -7085,10 +7178,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C172" t="str">
         <f>TRIM(B172)</f>
@@ -7113,10 +7206,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C173" t="str">
         <f>TRIM(B173)</f>
@@ -7141,10 +7234,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C174" t="str">
         <f>TRIM(B174)</f>
@@ -7169,10 +7262,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C175" t="str">
         <f>TRIM(B175)</f>
@@ -7197,10 +7290,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C176" t="str">
         <f>TRIM(B176)</f>
@@ -7225,10 +7318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C177" t="str">
         <f>TRIM(B177)</f>
@@ -7253,10 +7346,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C178" t="str">
         <f>TRIM(B178)</f>
@@ -7281,10 +7374,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C179" t="str">
         <f>TRIM(B179)</f>
@@ -7309,10 +7402,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C180" t="str">
         <f>TRIM(B180)</f>
@@ -7337,10 +7430,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B181" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C181" t="str">
         <f>TRIM(B181)</f>
@@ -7365,10 +7458,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C182" t="str">
         <f>TRIM(B182)</f>
@@ -7393,10 +7486,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C183" t="str">
         <f>TRIM(B183)</f>
@@ -7421,10 +7514,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C184" t="str">
         <f>TRIM(B184)</f>
@@ -7449,10 +7542,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C185" t="str">
         <f>TRIM(B185)</f>
@@ -7477,10 +7570,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C186" t="str">
         <f>TRIM(B186)</f>
@@ -7505,10 +7598,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B187" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C187" t="str">
         <f>TRIM(B187)</f>
@@ -7533,10 +7626,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B188" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C188" t="str">
         <f>TRIM(B188)</f>
@@ -7561,10 +7654,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C189" t="str">
         <f>TRIM(B189)</f>
@@ -7589,10 +7682,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B190" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C190" t="str">
         <f>TRIM(B190)</f>
@@ -7617,10 +7710,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C191" t="str">
         <f>TRIM(B191)</f>
@@ -7645,10 +7738,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C192" t="str">
         <f>TRIM(B192)</f>
@@ -7673,10 +7766,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C193" t="str">
         <f>TRIM(B193)</f>
@@ -7701,10 +7794,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C194" t="str">
         <f>TRIM(B194)</f>
@@ -7729,10 +7822,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C195" t="str">
         <f>TRIM(B195)</f>
@@ -7757,10 +7850,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C196" t="str">
         <f>TRIM(B196)</f>
@@ -7785,10 +7878,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C197" t="str">
         <f>TRIM(B197)</f>
@@ -7813,10 +7906,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B198" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C198" t="str">
         <f>TRIM(B198)</f>
@@ -7844,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C199" t="str">
         <f>TRIM(B199)</f>
@@ -7872,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C200" t="str">
         <f>TRIM(B200)</f>
@@ -7900,7 +7993,7 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C201" t="str">
         <f>TRIM(B201)</f>
@@ -7928,7 +8021,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C202" t="str">
         <f>TRIM(B202)</f>
@@ -7953,10 +8046,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C203" t="str">
         <f>TRIM(B203)</f>
@@ -7981,10 +8074,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B204" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C204" t="str">
         <f>TRIM(B204)</f>
@@ -8009,10 +8102,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C205" t="str">
         <f>TRIM(B205)</f>
@@ -8037,10 +8130,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C206" t="str">
         <f>TRIM(B206)</f>
@@ -8065,10 +8158,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C207" t="str">
         <f>TRIM(B207)</f>
@@ -8093,10 +8186,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C208" t="str">
         <f>TRIM(B208)</f>
@@ -8121,10 +8214,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C209" t="str">
         <f>TRIM(B209)</f>
@@ -8149,10 +8242,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C210" t="str">
         <f>TRIM(B210)</f>
@@ -8177,10 +8270,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C211" t="str">
         <f>TRIM(B211)</f>
@@ -8205,10 +8298,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C212" t="str">
         <f>TRIM(B212)</f>
@@ -8233,10 +8326,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C213" t="str">
         <f>TRIM(B213)</f>
@@ -8261,10 +8354,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C214" t="str">
         <f>TRIM(B214)</f>
@@ -8289,10 +8382,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C215" t="str">
         <f>TRIM(B215)</f>
@@ -8317,10 +8410,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C216" t="str">
         <f>TRIM(B216)</f>
@@ -8345,10 +8438,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C217" t="str">
         <f>TRIM(B217)</f>
@@ -8373,10 +8466,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C218" t="str">
         <f>TRIM(B218)</f>
@@ -8401,10 +8494,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C219" t="str">
         <f>TRIM(B219)</f>
@@ -8429,10 +8522,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C220" t="str">
         <f>TRIM(B220)</f>
@@ -8457,10 +8550,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C221" t="str">
         <f>TRIM(B221)</f>
@@ -8485,10 +8578,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C222" t="str">
         <f>TRIM(B222)</f>
@@ -8513,10 +8606,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C223" t="str">
         <f>TRIM(B223)</f>
@@ -8541,10 +8634,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B224" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C224" t="str">
         <f>TRIM(B224)</f>
@@ -8569,10 +8662,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C225" t="str">
         <f>TRIM(B225)</f>
@@ -8597,10 +8690,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C226" t="str">
         <f>TRIM(B226)</f>
@@ -8625,10 +8718,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C227" t="str">
         <f>TRIM(B227)</f>
@@ -8653,10 +8746,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C228" t="str">
         <f>TRIM(B228)</f>
@@ -8681,10 +8774,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C229" t="str">
         <f>TRIM(B229)</f>
@@ -8709,10 +8802,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C230" t="str">
         <f>TRIM(B230)</f>
@@ -8737,10 +8830,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C231" t="str">
         <f>TRIM(B231)</f>
@@ -8765,10 +8858,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C232" t="str">
         <f>TRIM(B232)</f>
@@ -8793,10 +8886,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C233" t="str">
         <f>TRIM(B233)</f>
@@ -8821,10 +8914,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C234" t="str">
         <f>TRIM(B234)</f>
@@ -8849,10 +8942,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C235" t="str">
         <f>TRIM(B235)</f>
@@ -8877,10 +8970,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C236" t="str">
         <f>TRIM(B236)</f>
@@ -8905,10 +8998,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C237" t="str">
         <f>TRIM(B237)</f>
@@ -8933,10 +9026,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C238" t="str">
         <f>TRIM(B238)</f>
@@ -8961,10 +9054,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C239" t="str">
         <f>TRIM(B239)</f>
@@ -8989,10 +9082,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C240" t="str">
         <f>TRIM(B240)</f>
@@ -9017,10 +9110,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C241" t="str">
         <f>TRIM(B241)</f>
@@ -9045,10 +9138,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C242" t="str">
         <f>TRIM(B242)</f>
@@ -9073,10 +9166,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C243" t="str">
         <f>TRIM(B243)</f>
@@ -9101,10 +9194,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C244" t="str">
         <f>TRIM(B244)</f>
@@ -9129,10 +9222,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B245" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C245" t="str">
         <f>TRIM(B245)</f>
@@ -9157,10 +9250,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B246" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C246" t="str">
         <f>TRIM(B246)</f>
@@ -9185,10 +9278,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C247" t="str">
         <f>TRIM(B247)</f>
@@ -9213,10 +9306,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C248" t="str">
         <f>TRIM(B248)</f>
@@ -9241,10 +9334,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C249" t="str">
         <f>TRIM(B249)</f>
@@ -9269,10 +9362,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C250" t="str">
         <f>TRIM(B250)</f>
@@ -9297,10 +9390,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C251" t="str">
         <f>TRIM(B251)</f>
@@ -9325,10 +9418,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B252" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C252" t="str">
         <f>TRIM(B252)</f>
@@ -9353,10 +9446,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C253" t="str">
         <f>TRIM(B253)</f>
@@ -9381,10 +9474,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C254" t="str">
         <f>TRIM(B254)</f>
@@ -9409,10 +9502,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C255" t="str">
         <f>TRIM(B255)</f>
@@ -9437,10 +9530,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B256" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C256" t="str">
         <f>TRIM(B256)</f>
@@ -9465,10 +9558,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C257" t="str">
         <f>TRIM(B257)</f>
@@ -9493,10 +9586,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C258" t="str">
         <f>TRIM(B258)</f>
@@ -9521,10 +9614,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C259" t="str">
         <f>TRIM(B259)</f>
@@ -9549,10 +9642,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C260" t="str">
         <f>TRIM(B260)</f>
@@ -9577,10 +9670,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B261" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C261" t="str">
         <f>TRIM(B261)</f>
@@ -9605,10 +9698,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C262" t="str">
         <f>TRIM(B262)</f>
@@ -9633,10 +9726,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C263" t="str">
         <f>TRIM(B263)</f>
@@ -9661,10 +9754,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B264" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C264" t="str">
         <f>TRIM(B264)</f>
@@ -9689,10 +9782,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B265" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C265" t="str">
         <f>TRIM(B265)</f>
@@ -9717,10 +9810,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B266" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C266" t="str">
         <f>TRIM(B266)</f>
@@ -9745,10 +9838,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C267" t="str">
         <f>TRIM(B267)</f>
@@ -9773,10 +9866,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C268" t="str">
         <f>TRIM(B268)</f>
@@ -9801,10 +9894,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C269" t="str">
         <f>TRIM(B269)</f>
@@ -9829,10 +9922,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C270" t="str">
         <f>TRIM(B270)</f>
@@ -9857,10 +9950,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C271" t="str">
         <f>TRIM(B271)</f>
@@ -9885,10 +9978,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B272" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C272" t="str">
         <f>TRIM(B272)</f>
@@ -9913,10 +10006,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B273" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C273" t="str">
         <f>TRIM(B273)</f>
@@ -9941,10 +10034,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B274" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C274" t="str">
         <f>TRIM(B274)</f>
@@ -9969,10 +10062,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B275" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C275" t="str">
         <f>TRIM(B275)</f>
@@ -9997,10 +10090,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B276" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C276" t="str">
         <f>TRIM(B276)</f>
@@ -10025,10 +10118,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B277" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C277" t="str">
         <f>TRIM(B277)</f>
@@ -10053,10 +10146,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B278" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C278" t="str">
         <f>TRIM(B278)</f>
@@ -10081,10 +10174,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B279" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C279" t="str">
         <f>TRIM(B279)</f>
@@ -10109,10 +10202,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B280" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C280" t="str">
         <f>TRIM(B280)</f>
@@ -10137,10 +10230,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B281" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C281" t="str">
         <f>TRIM(B281)</f>
@@ -10165,10 +10258,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B282" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C282" t="str">
         <f>TRIM(B282)</f>
@@ -10193,10 +10286,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B283" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C283" t="str">
         <f>TRIM(B283)</f>
@@ -10221,10 +10314,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B284" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C284" t="str">
         <f>TRIM(B284)</f>
@@ -10249,10 +10342,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B285" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C285" t="str">
         <f>TRIM(B285)</f>
@@ -10277,10 +10370,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B286" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C286" t="str">
         <f>TRIM(B286)</f>
@@ -10305,10 +10398,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B287" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C287" t="str">
         <f>TRIM(B287)</f>
@@ -10333,10 +10426,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B288" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C288" t="str">
         <f>TRIM(B288)</f>
@@ -10361,10 +10454,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B289" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C289" t="str">
         <f>TRIM(B289)</f>
@@ -10389,10 +10482,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C290" t="str">
         <f>TRIM(B290)</f>
@@ -10417,10 +10510,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B291" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C291" t="str">
         <f>TRIM(B291)</f>
@@ -10445,10 +10538,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B292" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C292" t="str">
         <f>TRIM(B292)</f>
@@ -10473,10 +10566,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B293" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C293" t="str">
         <f>TRIM(B293)</f>
@@ -10501,10 +10594,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B294" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C294" t="str">
         <f>TRIM(B294)</f>
@@ -10529,10 +10622,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B295" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C295" t="str">
         <f>TRIM(B295)</f>
@@ -10557,10 +10650,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B296" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C296" t="str">
         <f>TRIM(B296)</f>
@@ -10585,10 +10678,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C297" t="str">
         <f>TRIM(B297)</f>
@@ -10613,10 +10706,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B298" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C298" t="str">
         <f>TRIM(B298)</f>
@@ -10641,10 +10734,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B299" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C299" t="str">
         <f>TRIM(B299)</f>
@@ -10669,10 +10762,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B300" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C300" t="str">
         <f>TRIM(B300)</f>
@@ -10697,10 +10790,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B301" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C301" t="str">
         <f>TRIM(B301)</f>
@@ -10725,10 +10818,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B302" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C302" t="str">
         <f>TRIM(B302)</f>
@@ -10753,10 +10846,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B303" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C303" t="str">
         <f>TRIM(B303)</f>
@@ -10781,10 +10874,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C304" t="str">
         <f>TRIM(B304)</f>
@@ -10809,10 +10902,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C305" t="str">
         <f>TRIM(B305)</f>
@@ -10837,10 +10930,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B306" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C306" t="str">
         <f>TRIM(B306)</f>
@@ -10865,10 +10958,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B307" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C307" t="str">
         <f>TRIM(B307)</f>
@@ -10893,10 +10986,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B308" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C308" t="str">
         <f>TRIM(B308)</f>
@@ -10921,10 +11014,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B309" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C309" t="str">
         <f>TRIM(B309)</f>
@@ -10949,10 +11042,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B310" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C310" t="str">
         <f>TRIM(B310)</f>
@@ -10977,10 +11070,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B311" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C311" t="str">
         <f>TRIM(B311)</f>
@@ -11005,10 +11098,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B312" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C312" t="str">
         <f>TRIM(B312)</f>
@@ -11033,10 +11126,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B313" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C313" t="str">
         <f>TRIM(B313)</f>
@@ -11061,10 +11154,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B314" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C314" t="str">
         <f>TRIM(B314)</f>
@@ -11089,10 +11182,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B315" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C315" t="str">
         <f>TRIM(B315)</f>
@@ -11117,10 +11210,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B316" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C316" t="str">
         <f>TRIM(B316)</f>
@@ -11145,10 +11238,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B317" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C317" t="str">
         <f>TRIM(B317)</f>
@@ -11173,10 +11266,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B318" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C318" t="str">
         <f>TRIM(B318)</f>
@@ -11201,10 +11294,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B319" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C319" t="str">
         <f>TRIM(B319)</f>
@@ -11229,10 +11322,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B320" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C320" t="str">
         <f>TRIM(B320)</f>
@@ -11257,10 +11350,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B321" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C321" t="str">
         <f>TRIM(B321)</f>
@@ -11285,10 +11378,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B322" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C322" t="str">
         <f>TRIM(B322)</f>
@@ -11313,10 +11406,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B323" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C323" t="str">
         <f>TRIM(B323)</f>
@@ -11341,10 +11434,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B324" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C324" t="str">
         <f>TRIM(B324)</f>
@@ -11369,10 +11462,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B325" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C325" t="str">
         <f>TRIM(B325)</f>
@@ -11400,7 +11493,7 @@
         <v>108</v>
       </c>
       <c r="B326" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C326" t="str">
         <f>TRIM(B326)</f>
@@ -11428,7 +11521,7 @@
         <v>2008</v>
       </c>
       <c r="B327" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C327" t="str">
         <f>TRIM(B327)</f>
@@ -11456,7 +11549,7 @@
         <v>207</v>
       </c>
       <c r="B328" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C328" t="str">
         <f>TRIM(B328)</f>
@@ -11484,7 +11577,7 @@
         <v>208</v>
       </c>
       <c r="B329" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C329" t="str">
         <f>TRIM(B329)</f>
@@ -11512,7 +11605,7 @@
         <v>3008</v>
       </c>
       <c r="B330" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C330" t="str">
         <f>TRIM(B330)</f>
@@ -11540,7 +11633,7 @@
         <v>308</v>
       </c>
       <c r="B331" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C331" t="str">
         <f>TRIM(B331)</f>
@@ -11568,7 +11661,7 @@
         <v>4008</v>
       </c>
       <c r="B332" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C332" t="str">
         <f>TRIM(B332)</f>
@@ -11596,7 +11689,7 @@
         <v>5008</v>
       </c>
       <c r="B333" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C333" t="str">
         <f>TRIM(B333)</f>
@@ -11624,7 +11717,7 @@
         <v>508</v>
       </c>
       <c r="B334" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C334" t="str">
         <f>TRIM(B334)</f>
@@ -11649,10 +11742,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B335" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C335" t="str">
         <f>TRIM(B335)</f>
@@ -11677,10 +11770,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B336" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C336" t="str">
         <f>TRIM(B336)</f>
@@ -11705,10 +11798,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B337" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C337" t="str">
         <f>TRIM(B337)</f>
@@ -11733,10 +11826,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B338" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C338" t="str">
         <f>TRIM(B338)</f>
@@ -11761,10 +11854,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B339" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C339" t="str">
         <f>TRIM(B339)</f>
@@ -11789,10 +11882,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B340" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C340" t="str">
         <f>TRIM(B340)</f>
@@ -11820,7 +11913,7 @@
         <v>911</v>
       </c>
       <c r="B341" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C341" t="str">
         <f>TRIM(B341)</f>
@@ -11848,7 +11941,7 @@
         <v>918</v>
       </c>
       <c r="B342" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C342" t="str">
         <f>TRIM(B342)</f>
@@ -11873,10 +11966,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B343" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C343" t="str">
         <f>TRIM(B343)</f>
@@ -11901,10 +11994,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B344" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C344" t="str">
         <f>TRIM(B344)</f>
@@ -11929,10 +12022,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B345" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C345" t="str">
         <f>TRIM(B345)</f>
@@ -11957,10 +12050,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B346" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C346" t="str">
         <f>TRIM(B346)</f>
@@ -11985,10 +12078,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B347" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C347" t="str">
         <f>TRIM(B347)</f>
@@ -12013,10 +12106,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B348" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C348" t="str">
         <f>TRIM(B348)</f>
@@ -12041,10 +12134,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B349" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C349" t="str">
         <f>TRIM(B349)</f>
@@ -12069,10 +12162,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B350" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C350" t="str">
         <f>TRIM(B350)</f>
@@ -12097,10 +12190,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B351" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C351" t="str">
         <f>TRIM(B351)</f>
@@ -12125,10 +12218,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B352" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C352" t="str">
         <f>TRIM(B352)</f>
@@ -12153,10 +12246,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B353" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C353" t="str">
         <f>TRIM(B353)</f>
@@ -12181,10 +12274,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B354" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C354" t="str">
         <f>TRIM(B354)</f>
@@ -12209,10 +12302,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B355" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C355" t="str">
         <f>TRIM(B355)</f>
@@ -12237,10 +12330,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B356" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C356" t="str">
         <f>TRIM(B356)</f>
@@ -12265,10 +12358,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B357" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C357" t="str">
         <f>TRIM(B357)</f>
@@ -12293,10 +12386,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B358" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C358" t="str">
         <f>TRIM(B358)</f>
@@ -12321,10 +12414,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B359" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C359" t="str">
         <f>TRIM(B359)</f>
@@ -12349,10 +12442,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B360" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C360" t="str">
         <f>TRIM(B360)</f>
@@ -12377,10 +12470,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B361" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C361" t="str">
         <f>TRIM(B361)</f>
@@ -12405,10 +12498,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B362" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C362" t="str">
         <f>TRIM(B362)</f>
@@ -12433,10 +12526,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B363" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C363" t="str">
         <f>TRIM(B363)</f>
@@ -12461,10 +12554,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B364" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C364" t="str">
         <f>TRIM(B364)</f>
@@ -12489,10 +12582,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B365" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C365" t="str">
         <f>TRIM(B365)</f>
@@ -12517,10 +12610,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B366" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C366" t="str">
         <f>TRIM(B366)</f>
@@ -12545,10 +12638,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B367" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C367" t="str">
         <f>TRIM(B367)</f>
@@ -12573,10 +12666,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B368" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C368" t="str">
         <f>TRIM(B368)</f>
@@ -12601,10 +12694,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B369" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C369" t="str">
         <f>TRIM(B369)</f>
@@ -12629,10 +12722,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B370" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C370" t="str">
         <f>TRIM(B370)</f>
@@ -12657,10 +12750,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B371" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C371" t="str">
         <f>TRIM(B371)</f>
@@ -12685,10 +12778,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B372" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C372" t="str">
         <f>TRIM(B372)</f>
@@ -12713,10 +12806,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B373" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C373" t="str">
         <f>TRIM(B373)</f>
@@ -12741,10 +12834,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B374" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C374" t="str">
         <f>TRIM(B374)</f>
@@ -12769,10 +12862,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B375" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C375" t="str">
         <f>TRIM(B375)</f>
@@ -12797,10 +12890,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B376" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C376" t="str">
         <f>TRIM(B376)</f>
@@ -12825,10 +12918,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B377" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C377" t="str">
         <f>TRIM(B377)</f>
@@ -12853,10 +12946,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B378" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C378" t="str">
         <f>TRIM(B378)</f>
@@ -12881,10 +12974,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B379" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C379" t="str">
         <f>TRIM(B379)</f>
@@ -12909,10 +13002,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B380" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C380" t="str">
         <f>TRIM(B380)</f>
@@ -12937,10 +13030,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B381" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C381" t="str">
         <f>TRIM(B381)</f>
@@ -12965,10 +13058,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B382" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C382" t="str">
         <f>TRIM(B382)</f>
@@ -12993,10 +13086,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B383" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C383" t="str">
         <f>TRIM(B383)</f>
@@ -13021,10 +13114,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B384" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C384" t="str">
         <f>TRIM(B384)</f>
@@ -13049,10 +13142,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B385" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C385" t="str">
         <f>TRIM(B385)</f>
@@ -13077,10 +13170,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B386" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C386" t="str">
         <f>TRIM(B386)</f>
@@ -13105,10 +13198,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B387" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C387" t="str">
         <f>TRIM(B387)</f>
@@ -13133,10 +13226,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B388" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C388" t="str">
         <f>TRIM(B388)</f>
@@ -13161,10 +13254,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B389" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C389" t="str">
         <f>TRIM(B389)</f>
@@ -13189,10 +13282,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B390" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C390" t="str">
         <f>TRIM(B390)</f>
@@ -13217,10 +13310,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B391" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C391" t="str">
         <f>TRIM(B391)</f>
@@ -13245,10 +13338,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B392" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C392" t="str">
         <f>TRIM(B392)</f>
@@ -13273,10 +13366,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B393" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C393" t="str">
         <f>TRIM(B393)</f>
@@ -13301,10 +13394,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B394" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C394" t="str">
         <f>TRIM(B394)</f>
@@ -13329,10 +13422,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B395" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C395" t="str">
         <f>TRIM(B395)</f>
@@ -13357,10 +13450,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B396" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C396" t="str">
         <f>TRIM(B396)</f>
@@ -13385,10 +13478,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B397" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C397" t="str">
         <f>TRIM(B397)</f>
@@ -13413,10 +13506,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B398" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C398" t="str">
         <f>TRIM(B398)</f>
@@ -13441,10 +13534,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B399" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C399" t="str">
         <f>TRIM(B399)</f>
@@ -13469,10 +13562,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B400" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C400" t="str">
         <f>TRIM(B400)</f>
@@ -13497,10 +13590,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B401" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C401" t="str">
         <f>TRIM(B401)</f>
@@ -13525,10 +13618,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B402" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C402" t="str">
         <f>TRIM(B402)</f>
@@ -13553,10 +13646,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B403" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C403" t="str">
         <f>TRIM(B403)</f>
@@ -13581,10 +13674,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B404" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C404" t="str">
         <f>TRIM(B404)</f>
@@ -13609,10 +13702,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B405" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C405" t="str">
         <f>TRIM(B405)</f>
@@ -13637,10 +13730,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B406" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C406" t="str">
         <f>TRIM(B406)</f>
@@ -13665,10 +13758,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B407" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C407" t="str">
         <f>TRIM(B407)</f>
@@ -13693,10 +13786,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B408" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C408" t="str">
         <f>TRIM(B408)</f>
@@ -13721,10 +13814,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B409" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C409" t="str">
         <f>TRIM(B409)</f>
@@ -13749,10 +13842,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B410" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C410" t="str">
         <f>TRIM(B410)</f>
@@ -13777,10 +13870,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B411" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C411" t="str">
         <f>TRIM(B411)</f>
@@ -13805,10 +13898,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B412" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C412" t="str">
         <f>TRIM(B412)</f>
@@ -13833,10 +13926,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B413" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C413" t="str">
         <f>TRIM(B413)</f>
@@ -13861,10 +13954,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B414" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C414" t="str">
         <f>TRIM(B414)</f>
@@ -13889,10 +13982,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B415" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C415" t="str">
         <f>TRIM(B415)</f>
@@ -13917,10 +14010,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B416" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C416" t="str">
         <f>TRIM(B416)</f>
@@ -13945,10 +14038,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B417" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C417" t="str">
         <f>TRIM(B417)</f>
@@ -13973,10 +14066,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B418" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C418" t="str">
         <f>TRIM(B418)</f>
@@ -14001,10 +14094,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B419" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C419" t="str">
         <f>TRIM(B419)</f>
@@ -14029,10 +14122,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B420" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C420" t="str">
         <f>TRIM(B420)</f>
@@ -14057,10 +14150,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B421" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C421" t="str">
         <f>TRIM(B421)</f>
@@ -14085,10 +14178,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B422" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C422" t="str">
         <f>TRIM(B422)</f>
@@ -14113,10 +14206,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B423" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C423" t="str">
         <f>TRIM(B423)</f>
@@ -14141,10 +14234,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B424" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C424" t="str">
         <f>TRIM(B424)</f>
@@ -14169,10 +14262,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B425" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C425" t="str">
         <f>TRIM(B425)</f>
@@ -14197,10 +14290,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B426" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C426" t="str">
         <f>TRIM(B426)</f>
@@ -14225,10 +14318,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B427" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C427" t="str">
         <f>TRIM(B427)</f>

--- a/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_marque_modele_voiture/Marque Modele.xlsx
+++ b/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_marque_modele_voiture/Marque Modele.xlsx
@@ -1867,7 +1867,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1876,6 +1876,7 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="22.109375"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="14.109375"/>
     <col bestFit="1" min="5" max="5" width="13.7109375"/>
+    <col bestFit="1" min="7" max="7" width="20.57421875"/>
     <col bestFit="1" min="9" max="9" width="74.00390625"/>
     <col bestFit="1" min="10" max="10" width="13.28125"/>
     <col bestFit="1" min="12" max="12" width="67.140625"/>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-06-jj</v>
+        <v>-05-jj</v>
       </c>
     </row>
     <row r="3">
@@ -1984,7 +1985,7 @@
       </c>
       <c r="O3" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-11-jj</v>
+        <v>-09-jj</v>
       </c>
     </row>
     <row r="4">
@@ -2068,7 +2069,7 @@
       </c>
       <c r="O5" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-07-jj</v>
+        <v>-08-jj</v>
       </c>
     </row>
     <row r="6">
@@ -2110,7 +2111,7 @@
       </c>
       <c r="O6" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-06-jj</v>
+        <v>-05-jj</v>
       </c>
     </row>
     <row r="7">
@@ -2152,7 +2153,7 @@
       </c>
       <c r="O7" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-01-jj</v>
+        <v>-06-jj</v>
       </c>
     </row>
     <row r="8">
@@ -2194,7 +2195,7 @@
       </c>
       <c r="O8" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-01-jj</v>
+        <v>-05-jj</v>
       </c>
     </row>
     <row r="9">
@@ -2236,7 +2237,7 @@
       </c>
       <c r="O9" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-07-jj</v>
+        <v>-08-jj</v>
       </c>
     </row>
     <row r="10">
@@ -2278,7 +2279,7 @@
       </c>
       <c r="O10" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-01-jj</v>
+        <v>-12-jj</v>
       </c>
     </row>
     <row r="11">
@@ -2320,7 +2321,7 @@
       </c>
       <c r="O11" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-03-jj</v>
+        <v>-07-jj</v>
       </c>
     </row>
     <row r="12">
@@ -2362,7 +2363,7 @@
       </c>
       <c r="O12" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-08-jj</v>
+        <v>-01-jj</v>
       </c>
     </row>
     <row r="13">
@@ -2404,7 +2405,7 @@
       </c>
       <c r="O13" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-08-jj</v>
+        <v>-04-jj</v>
       </c>
     </row>
     <row r="14">
@@ -2488,7 +2489,7 @@
       </c>
       <c r="O15" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-02-jj</v>
+        <v>-06-jj</v>
       </c>
     </row>
     <row r="16">
@@ -2530,7 +2531,7 @@
       </c>
       <c r="O16" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-05-jj</v>
+        <v>-06-jj</v>
       </c>
     </row>
     <row r="17">
@@ -2572,7 +2573,7 @@
       </c>
       <c r="O17" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-03-jj</v>
+        <v>-06-jj</v>
       </c>
     </row>
     <row r="18">
@@ -2656,7 +2657,7 @@
       </c>
       <c r="O19" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-07-jj</v>
+        <v>-12-jj</v>
       </c>
     </row>
     <row r="20">
@@ -2698,7 +2699,7 @@
       </c>
       <c r="O20" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-03-jj</v>
+        <v>-05-jj</v>
       </c>
     </row>
     <row r="21">
@@ -2740,7 +2741,7 @@
       </c>
       <c r="O21" t="str">
         <f ca="1">TEXT(DATE(2020,1,1)+RANDBETWEEN(0,1000),"aaaa-mm-jj")</f>
-        <v>-02-jj</v>
+        <v>-07-jj</v>
       </c>
     </row>
     <row r="22">
